--- a/数据表.xlsx
+++ b/数据表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\web doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\WDWD01\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -147,10 +147,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>模态框_原页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>订单管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -740,6 +736,10 @@
   </si>
   <si>
     <t>experiment_stats</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1174,12 +1174,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -1193,7 +1193,7 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1216,16 +1216,16 @@
         <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
@@ -1239,19 +1239,19 @@
         <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>179</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H3" t="s">
         <v>18</v>
       </c>
       <c r="J3" t="s">
+        <v>129</v>
+      </c>
+      <c r="K3" t="s">
         <v>130</v>
-      </c>
-      <c r="K3" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
@@ -1262,28 +1262,28 @@
         <v>21</v>
       </c>
       <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
         <v>29</v>
       </c>
-      <c r="E5" t="s">
-        <v>30</v>
-      </c>
       <c r="G5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="N5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
@@ -1294,28 +1294,28 @@
         <v>19</v>
       </c>
       <c r="D6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" t="s">
         <v>31</v>
       </c>
-      <c r="E6" t="s">
-        <v>32</v>
-      </c>
       <c r="G6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H6" t="s">
+        <v>174</v>
+      </c>
+      <c r="J6" t="s">
+        <v>132</v>
+      </c>
+      <c r="K6" t="s">
+        <v>138</v>
+      </c>
+      <c r="M6" t="s">
+        <v>170</v>
+      </c>
+      <c r="N6" t="s">
         <v>175</v>
-      </c>
-      <c r="J6" t="s">
-        <v>133</v>
-      </c>
-      <c r="K6" t="s">
-        <v>139</v>
-      </c>
-      <c r="M6" t="s">
-        <v>171</v>
-      </c>
-      <c r="N6" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
@@ -1326,28 +1326,28 @@
         <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
@@ -1358,28 +1358,28 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s">
         <v>34</v>
       </c>
-      <c r="E8" t="s">
-        <v>35</v>
-      </c>
       <c r="G8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
@@ -1392,16 +1392,16 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="D10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" t="s">
         <v>36</v>
       </c>
-      <c r="E10" t="s">
-        <v>37</v>
-      </c>
       <c r="G10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
@@ -1412,10 +1412,10 @@
         <v>20</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
@@ -1445,52 +1445,52 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>124</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="G1" t="s">
-        <v>114</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="N1" t="s">
         <v>127</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>128</v>
       </c>
-      <c r="O1" t="s">
-        <v>129</v>
-      </c>
       <c r="P1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1521,52 +1521,52 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="D1" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="N1" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.15">
@@ -1574,54 +1574,54 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" t="s">
         <v>73</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>74</v>
-      </c>
-      <c r="F2" t="s">
-        <v>75</v>
       </c>
       <c r="G2">
         <v>13513457895</v>
       </c>
       <c r="H2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I2" t="s">
         <v>76</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
+        <v>81</v>
+      </c>
+      <c r="K2" t="s">
         <v>77</v>
       </c>
-      <c r="J2" t="s">
-        <v>82</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>78</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>79</v>
-      </c>
-      <c r="M2" t="s">
-        <v>80</v>
       </c>
       <c r="N2" s="7">
         <v>42579</v>
       </c>
       <c r="Q2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q3" s="5" t="s">
         <v>84</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1648,31 +1648,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" t="s">
         <v>88</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" t="s">
         <v>93</v>
       </c>
-      <c r="D1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I1" t="s">
         <v>91</v>
-      </c>
-      <c r="G1" t="s">
-        <v>94</v>
-      </c>
-      <c r="H1" t="s">
-        <v>83</v>
-      </c>
-      <c r="I1" t="s">
-        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1693,37 +1693,37 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" t="s">
         <v>112</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>113</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>114</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>115</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>116</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K1" t="s">
         <v>117</v>
-      </c>
-      <c r="J1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K1" t="s">
-        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -1744,28 +1744,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1" t="s">
         <v>140</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>142</v>
       </c>
-      <c r="C1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>143</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>144</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>145</v>
       </c>
-      <c r="G1" t="s">
-        <v>146</v>
-      </c>
       <c r="H1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1789,67 +1789,67 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" t="s">
         <v>152</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>153</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>154</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F1" t="s">
         <v>155</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H1" t="s">
+        <v>156</v>
+      </c>
+      <c r="I1" t="s">
+        <v>157</v>
+      </c>
+      <c r="J1" t="s">
+        <v>158</v>
+      </c>
+      <c r="K1" t="s">
         <v>147</v>
       </c>
-      <c r="F1" t="s">
-        <v>156</v>
-      </c>
-      <c r="G1" t="s">
-        <v>144</v>
-      </c>
-      <c r="H1" t="s">
-        <v>157</v>
-      </c>
-      <c r="I1" t="s">
-        <v>158</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
+        <v>150</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="N1" t="s">
+        <v>148</v>
+      </c>
+      <c r="O1" t="s">
+        <v>161</v>
+      </c>
+      <c r="P1" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>163</v>
+      </c>
+      <c r="R1" t="s">
+        <v>164</v>
+      </c>
+      <c r="S1" t="s">
+        <v>149</v>
+      </c>
+      <c r="T1" t="s">
+        <v>87</v>
+      </c>
+      <c r="U1" t="s">
         <v>159</v>
-      </c>
-      <c r="K1" t="s">
-        <v>148</v>
-      </c>
-      <c r="L1" t="s">
-        <v>151</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="N1" t="s">
-        <v>149</v>
-      </c>
-      <c r="O1" t="s">
-        <v>162</v>
-      </c>
-      <c r="P1" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>164</v>
-      </c>
-      <c r="R1" t="s">
-        <v>165</v>
-      </c>
-      <c r="S1" t="s">
-        <v>150</v>
-      </c>
-      <c r="T1" t="s">
-        <v>88</v>
-      </c>
-      <c r="U1" t="s">
-        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -1870,77 +1870,77 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
